--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="397">
   <si>
     <t xml:space="preserve">Items Code </t>
   </si>
@@ -161,6 +161,1056 @@
   </si>
   <si>
     <t xml:space="preserve">Wooden Road Packs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Yo Yo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Dices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Doll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Troll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Bear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Pony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Puppy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Rocketing Horse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Chests- plain edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Chests- sliver edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Chests- gold edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Chests- copper edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Chests- marble edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Chests- platic edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Chests- aluminum edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Chests- titanium edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Chests- tin edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden House- gold tirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden House- sliver tirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden House- tin tirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden House- copper tirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden House- aluminum tirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden House- titanium tirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden tea set- Gold edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden tea set- sliver edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden tea set- tin edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden tea set- titanium edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden tea set- china edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden tea set- glass bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0340</t>
   </si>
 </sst>
 </file>
@@ -170,11 +1220,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -190,6 +1241,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -313,7 +1369,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -339,6 +1395,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -419,17 +1479,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F341"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -527,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,6 +1787,4486 @@
         <v>0</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C101" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C117" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C118" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C119" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C120" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C121" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C133" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C134" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C139" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C140" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C141" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C153" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C154" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C155" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C156" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C157" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C158" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C159" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C160" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C161" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C174" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C175" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C176" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C177" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C178" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C179" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C180" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C181" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C187" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C188" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C189" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C190" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C191" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C192" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C193" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C194" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C195" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C196" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C197" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C198" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C199" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C200" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C201" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C207" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C209" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C210" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C211" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C212" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C213" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C214" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C215" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C216" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C217" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C218" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C219" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C220" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C221" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C225" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C227" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C228" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C229" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C230" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C231" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C232" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C233" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C234" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C235" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C236" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C237" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C238" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C239" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C240" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C244" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C246" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C247" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C248" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C249" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C250" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C252" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C253" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C254" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C255" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C256" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C257" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C258" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C259" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C260" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C264" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C265" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C266" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C268" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C269" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C270" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C272" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C273" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C274" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C275" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C276" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C277" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C278" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C279" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C280" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C284" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C285" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C286" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C287" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C288" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D288" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C289" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C290" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D290" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C292" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C293" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C294" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C295" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C296" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C297" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D297" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C298" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C299" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C300" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C301" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C303" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C304" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C305" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C307" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C308" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C309" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C310" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C311" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C312" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C313" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C314" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C315" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C316" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D316" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C317" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C318" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C319" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C320" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C321" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C323" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C324" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D324" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C325" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C326" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C327" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C328" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C329" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C330" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C331" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C332" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D332" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C333" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C334" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D334" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C335" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C336" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D336" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C337" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C338" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C339" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D339" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C340" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D340" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C341" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D341" s="6" t="s">
         <v>11</v>
       </c>
     </row>
